--- a/Software specification/SRS/SRS_Review.xlsx
+++ b/Software specification/SRS/SRS_Review.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>There’s no need to write chapter number (Chapter 1 , 2 , 3) above the section because  it isn’t like a book or a novel.</t>
-  </si>
-  <si>
-    <t>Req PO1 DGC SRS 004 v1.0:
-Don’t display + sign before the operand, no need for that just "- sign" is needed</t>
   </si>
   <si>
     <t>Clarify that this behavior will be done under condition "if the user pressed = before enter an operation"</t>
@@ -142,12 +138,6 @@
   </si>
   <si>
     <t>There is no requirement about SW shall read the input from keypad and how to decide the pressed key</t>
-  </si>
-  <si>
-    <t>Req PO1 DGC SRS 0010 v1.0:
-Yous should split this requirement to 2 requirements
-the first one -&gt; to have a different tone for every button
-the second one -&gt; to output the tones on the buzzer</t>
   </si>
   <si>
     <t xml:space="preserve">For all display requiremtns:
@@ -162,6 +152,44 @@
   </si>
   <si>
     <t>Please provide a word document for SRS</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Ali 13/2/2020: Point is closed</t>
+  </si>
+  <si>
+    <t>Req PO1 DGC SRS 005 v1.0:
+Don’t display + sign before the operand, no need for that just "- sign" is needed</t>
+  </si>
+  <si>
+    <t>Ali 13/2/2020: Don't display word "sign", I meant "-" sign</t>
+  </si>
+  <si>
+    <t>No need for requirement SRS_006</t>
+  </si>
+  <si>
+    <t>Req PO1 DGC SRS 0010 v1.0:
+You should split this requirement to 2 requirements
+the first one -&gt; to have a different tone for every button
+the second one -&gt; to output the tones on the buzzer</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Where buzzer requirements gone !!</t>
+  </si>
+  <si>
+    <t>in SRS_001:
+Don’t say SW shall call function it should be "SW shall check the pressed key"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no differnce between SRS_001 and SRS_002 they have the same scope "detecting the pressed key" </t>
   </si>
 </sst>
 </file>
@@ -511,7 +539,7 @@
     <cellStyle name="Normal 3 2" xfId="1"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="70">
     <dxf>
       <font>
         <condense val="0"/>
@@ -533,6 +561,714 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1F4E79"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAE3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF385724"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF535353"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDBDBDB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF808080"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFBE5D6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1F4E79"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAE3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF385724"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF535353"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDBDBDB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF808080"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFBE5D6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1F4E79"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAE3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF385724"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF535353"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDBDBDB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF808080"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFBE5D6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1F4E79"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAE3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF385724"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF535353"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDBDBDB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF808080"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFBE5D6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1F4E79"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAE3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF385724"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF535353"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDBDBDB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF808080"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFBE5D6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1226,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1276,11 +2012,16 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="19" t="s">
-        <v>25</v>
+      <c r="G2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1296,9 +2037,14 @@
       <c r="D3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F3" s="19" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1314,9 +2060,14 @@
       <c r="D4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F4" s="19" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -1335,11 +2086,15 @@
       <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="20">
@@ -1352,13 +2107,17 @@
         <v>24</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="10"/>
       <c r="F6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="20">
@@ -1371,13 +2130,15 @@
         <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
       <c r="I7" t="s">
         <v>27</v>
       </c>
@@ -1396,7 +2157,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="19" t="s">
@@ -1421,13 +2182,17 @@
         <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="20">
@@ -1440,7 +2205,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="19" t="s">
@@ -1459,7 +2224,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="19" t="s">
@@ -1478,7 +2243,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="19" t="s">
@@ -1487,39 +2252,79 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="20">
+        <v>44014</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="20">
+        <v>44014</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="20">
+        <v>44014</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="20">
+        <v>44014</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
@@ -1767,33 +2572,240 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F12">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="73" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F12">
+    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
@@ -1802,19 +2814,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E1043 E1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E17:E1043">
       <formula1>$I$4:$I$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F1043 F1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F1043">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
-      <formula1>$I$4:$I$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16">
+      <formula1>"Refused, Accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
-      <formula1>"Open, Resloved"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16">
+      <formula1>"Open, Resolved"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Software specification/SRS/SRS_Review.xlsx
+++ b/Software specification/SRS/SRS_Review.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mina\embeded_systems\ES_ITI_intake_40\Software_engineering\Calculator_repo\Software-Engineering\SWE_Calculator\Software specification\SRS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction " sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -195,12 +200,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -251,6 +256,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -278,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -436,6 +447,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -443,7 +469,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -499,38 +525,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -539,103 +568,7 @@
     <cellStyle name="Normal 3 2" xfId="1"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1716,233 +1649,209 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J24" activeCellId="1" sqref="A8:H8 J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="30" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="28" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="28" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="28" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="28" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="25" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>0.1</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -1952,6 +1861,30 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1959,14 +1892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="19" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -1978,7 +1911,7 @@
     <col min="10" max="10" width="174.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.15" customHeight="1">
+    <row r="1" spans="1:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2001,7 +1934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>44014</v>
       </c>
@@ -2024,7 +1957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>44014</v>
       </c>
@@ -2047,7 +1980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>44014</v>
       </c>
@@ -2073,7 +2006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>44014</v>
       </c>
@@ -2096,7 +2029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>44014</v>
       </c>
@@ -2119,7 +2052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>44014</v>
       </c>
@@ -2132,7 +2065,9 @@
       <c r="D7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="19" t="s">
         <v>25</v>
       </c>
@@ -2146,7 +2081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>44014</v>
       </c>
@@ -2159,7 +2094,9 @@
       <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F8" s="19" t="s">
         <v>25</v>
       </c>
@@ -2171,7 +2108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>44014</v>
       </c>
@@ -2194,7 +2131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>44014</v>
       </c>
@@ -2207,13 +2144,15 @@
       <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="60">
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>44014</v>
       </c>
@@ -2226,13 +2165,15 @@
       <c r="D11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="75">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>44014</v>
       </c>
@@ -2245,13 +2186,15 @@
       <c r="D12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>44014</v>
       </c>
@@ -2264,13 +2207,15 @@
       <c r="D13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>44014</v>
       </c>
@@ -2283,13 +2228,15 @@
       <c r="D14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>44014</v>
       </c>
@@ -2302,13 +2249,15 @@
       <c r="D15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>44014</v>
       </c>
@@ -2321,13 +2270,15 @@
       <c r="D16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -2336,7 +2287,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -2345,7 +2296,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -2354,7 +2305,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -2363,7 +2314,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
@@ -2372,7 +2323,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -2381,7 +2332,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
@@ -2390,7 +2341,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2399,7 +2350,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2408,7 +2359,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2417,7 +2368,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2426,7 +2377,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2435,7 +2386,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2444,7 +2395,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2453,7 +2404,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2462,7 +2413,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2471,7 +2422,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2480,7 +2431,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2489,7 +2440,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2498,7 +2449,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2507,7 +2458,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2516,7 +2467,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2525,7 +2476,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2534,7 +2485,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2543,7 +2494,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2552,7 +2503,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2561,7 +2512,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2572,244 +2523,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F12">
-    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="73" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2830,6 +2781,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Software specification/SRS/SRS_Review.xlsx
+++ b/Software specification/SRS/SRS_Review.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mina\embeded_systems\ES_ITI_intake_40\Software_engineering\Calculator_repo\Software-Engineering\SWE_Calculator\Software specification\SRS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="945" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -172,9 +167,6 @@
 Don’t display + sign before the operand, no need for that just "- sign" is needed</t>
   </si>
   <si>
-    <t>Ali 13/2/2020: Don't display word "sign", I meant "-" sign</t>
-  </si>
-  <si>
     <t>No need for requirement SRS_006</t>
   </si>
   <si>
@@ -196,16 +188,32 @@
   <si>
     <t xml:space="preserve">There is no differnce between SRS_001 and SRS_002 they have the same scope "detecting the pressed key" </t>
   </si>
+  <si>
+    <t>Ali 19/2/2020: Point is closed</t>
+  </si>
+  <si>
+    <t>19/2/2020</t>
+  </si>
+  <si>
+    <t>In SRS_006 : Inputs shall be "Data, postion"</t>
+  </si>
+  <si>
+    <t>There is many requirements contains the same requirement "SW shall display on LCD the send data on the sent position" hust one requirement about LCD is enough</t>
+  </si>
+  <si>
+    <t>Ali 13/2/2020: Don't display word "sign", I meant "-" sign
+Ali 19/2/2020: Point is closed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,12 +264,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -289,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -447,21 +449,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -469,7 +456,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -485,9 +472,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -525,19 +509,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,17 +530,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -568,7 +561,295 @@
     <cellStyle name="Normal 3 2" xfId="1"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1649,61 +1930,61 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J24" activeCellId="1" sqref="A8:H8 J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="23" t="s">
         <v>3</v>
       </c>
@@ -1712,24 +1993,24 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="23" t="s">
         <v>7</v>
       </c>
@@ -1738,11 +2019,11 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="23" t="s">
         <v>9</v>
       </c>
@@ -1751,107 +2032,131 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="2">
         <v>0.1</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="2"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="2"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16" s="2"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="2"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="3"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -1861,30 +2166,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1892,16 +2173,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="100.42578125" customWidth="1"/>
@@ -1911,7 +2192,7 @@
     <col min="10" max="10" width="174.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="34.15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1934,8 +2215,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+    <row r="2" spans="1:10">
+      <c r="A2" s="19">
         <v>44014</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1944,21 +2225,21 @@
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="3" spans="1:10">
+      <c r="A3" s="19">
         <v>44014</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1967,21 +2248,21 @@
       <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="4" spans="1:10">
+      <c r="A4" s="19">
         <v>44014</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1990,24 +2271,24 @@
       <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="31" t="s">
         <v>43</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="19">
         <v>44014</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2016,21 +2297,21 @@
       <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" s="19">
         <v>44014</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2039,21 +2320,21 @@
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="19">
         <v>44014</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2062,17 +2343,17 @@
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
+      <c r="F7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
@@ -2081,8 +2362,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+    <row r="8" spans="1:10">
+      <c r="A8" s="19">
         <v>44014</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2091,16 +2372,16 @@
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="32"/>
       <c r="I8" t="s">
         <v>29</v>
       </c>
@@ -2108,8 +2389,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+    <row r="9" spans="1:10" ht="45">
+      <c r="A9" s="19">
         <v>44014</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2118,21 +2399,21 @@
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+    <row r="10" spans="1:10">
+      <c r="A10" s="19">
         <v>44014</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2141,19 +2422,19 @@
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+    <row r="11" spans="1:10" ht="60">
+      <c r="A11" s="19">
         <v>44014</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2162,19 +2443,19 @@
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="75">
+      <c r="A12" s="19">
         <v>44014</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2183,600 +2464,676 @@
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="F12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="19">
         <v>44014</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="F13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="19">
         <v>44014</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="19">
         <v>44014</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="F15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="19">
         <v>44014</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="19" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="15"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5">
+      <c r="A18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F12">
-    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="69" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="64" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="57" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="43" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E17:E1043">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E19:E1043">
       <formula1>$I$4:$I$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F1043">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F19:F1043">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18">
       <formula1>"Refused, Accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18">
       <formula1>"Open, Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Software specification/SRS/SRS_Review.xlsx
+++ b/Software specification/SRS/SRS_Review.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mina\embeded_systems\ES_ITI_intake_40\Software_engineering\Calculator_repo\Software-Engineering\SWE_Calculator\Software specification\SRS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction " sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -208,12 +213,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -509,39 +514,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -554,6 +526,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Accent3" xfId="3"/>
@@ -561,151 +566,7 @@
     <cellStyle name="Normal 3 2" xfId="1"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1930,109 +1791,109 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J24" activeCellId="1" sqref="A8:H8 J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="27" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="27" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="27" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="27" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -2041,122 +1902,98 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>0.1</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -2166,6 +2003,30 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2173,14 +2034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2192,7 +2053,7 @@
     <col min="10" max="10" width="174.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.15" customHeight="1">
+    <row r="1" spans="1:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>44014</v>
       </c>
@@ -2238,7 +2099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>44014</v>
       </c>
@@ -2261,7 +2122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>44014</v>
       </c>
@@ -2280,14 +2141,14 @@
       <c r="F4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="20" t="s">
         <v>43</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>44014</v>
       </c>
@@ -2306,11 +2167,11 @@
       <c r="F5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>44014</v>
       </c>
@@ -2329,11 +2190,11 @@
       <c r="F6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>44014</v>
       </c>
@@ -2352,7 +2213,7 @@
       <c r="F7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="23" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -2362,7 +2223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>44014</v>
       </c>
@@ -2381,7 +2242,7 @@
       <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="21"/>
       <c r="I8" t="s">
         <v>29</v>
       </c>
@@ -2389,7 +2250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>44014</v>
       </c>
@@ -2408,11 +2269,11 @@
       <c r="F9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>44014</v>
       </c>
@@ -2431,9 +2292,9 @@
       <c r="F10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" ht="60">
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>44014</v>
       </c>
@@ -2452,9 +2313,9 @@
       <c r="F11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="75">
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>44014</v>
       </c>
@@ -2473,11 +2334,11 @@
       <c r="F12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>44014</v>
       </c>
@@ -2496,11 +2357,11 @@
       <c r="F13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>44014</v>
       </c>
@@ -2519,9 +2380,9 @@
       <c r="F14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" ht="30">
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>44014</v>
       </c>
@@ -2540,11 +2401,11 @@
       <c r="F15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>44014</v>
       </c>
@@ -2563,11 +2424,11 @@
       <c r="F16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -2580,13 +2441,15 @@
       <c r="D17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" spans="1:7" ht="25.5">
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
@@ -2599,13 +2462,15 @@
       <c r="D18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -2614,7 +2479,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -2623,7 +2488,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -2632,7 +2497,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2641,7 +2506,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2650,7 +2515,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2659,7 +2524,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2668,7 +2533,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2677,7 +2542,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2686,7 +2551,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2695,7 +2560,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2704,7 +2569,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2713,7 +2578,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2722,7 +2587,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2731,7 +2596,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2740,7 +2605,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2749,7 +2614,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2758,7 +2623,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2767,7 +2632,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2776,7 +2641,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2785,7 +2650,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2794,7 +2659,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2803,7 +2668,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2812,7 +2677,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2821,7 +2686,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2832,292 +2697,292 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F12">
-    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="85" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="74" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="69" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="67" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="66" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="60" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="55" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Software specification/SRS/SRS_Review.xlsx
+++ b/Software specification/SRS/SRS_Review.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mina\embeded_systems\ES_ITI_intake_40\Software_engineering\Calculator_repo\Software-Engineering\SWE_Calculator\Software specification\SRS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1890" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -209,16 +204,31 @@
     <t>Ali 13/2/2020: Don't display word "sign", I meant "-" sign
 Ali 19/2/2020: Point is closed</t>
   </si>
+  <si>
+    <t>Ali 24/2/2020: Point is closed</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfortunately you took the context diagram copy paste from the slide without adding single line, also with out adding buzzer in the context diagram </t>
+  </si>
+  <si>
+    <t>For every output in the context diagram I shall find every output signal in the requirements output field, "LCD" still an putput signal used in the requirements while it shall be replaced with the defined output signals in the context diagram</t>
+  </si>
+  <si>
+    <t>Move the context diagram before requirememnts section</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -526,19 +536,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,13 +557,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,7 +576,343 @@
     <cellStyle name="Normal 3 2" xfId="1"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="102">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1791,209 +2137,233 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J24" activeCellId="1" sqref="A8:H8 J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="2">
         <v>0.1</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="26" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="2"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="2"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="2"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="2"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="3"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -2003,30 +2373,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2034,14 +2380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2053,7 +2399,7 @@
     <col min="10" max="10" width="174.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="34.15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2076,7 +2422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="19">
         <v>44014</v>
       </c>
@@ -2099,7 +2445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="19">
         <v>44014</v>
       </c>
@@ -2122,7 +2468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="19">
         <v>44014</v>
       </c>
@@ -2148,7 +2494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="19">
         <v>44014</v>
       </c>
@@ -2171,7 +2517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="19">
         <v>44014</v>
       </c>
@@ -2194,7 +2540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="19">
         <v>44014</v>
       </c>
@@ -2223,7 +2569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="19">
         <v>44014</v>
       </c>
@@ -2240,9 +2586,11 @@
         <v>41</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="I8" t="s">
         <v>29</v>
       </c>
@@ -2250,7 +2598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="19">
         <v>44014</v>
       </c>
@@ -2273,7 +2621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="19">
         <v>44014</v>
       </c>
@@ -2290,11 +2638,13 @@
         <v>41</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60">
       <c r="A11" s="19">
         <v>44014</v>
       </c>
@@ -2311,11 +2661,13 @@
         <v>41</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75">
       <c r="A12" s="19">
         <v>44014</v>
       </c>
@@ -2338,7 +2690,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="19">
         <v>44014</v>
       </c>
@@ -2361,7 +2713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="19">
         <v>44014</v>
       </c>
@@ -2382,7 +2734,7 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="19">
         <v>44014</v>
       </c>
@@ -2405,7 +2757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="19">
         <v>44014</v>
       </c>
@@ -2428,7 +2780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -2449,7 +2801,7 @@
       </c>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="25.5">
       <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
@@ -2470,34 +2822,64 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
+    <row r="19" spans="1:7" ht="25.5">
+      <c r="A19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
+    <row r="20" spans="1:7" ht="25.5">
+      <c r="A20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2506,7 +2888,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2515,7 +2897,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2524,7 +2906,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2533,7 +2915,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2542,7 +2924,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2551,7 +2933,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2560,7 +2942,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2569,7 +2951,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2578,7 +2960,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2587,7 +2969,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2596,7 +2978,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2605,7 +2987,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2614,7 +2996,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2623,7 +3005,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2632,7 +3014,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2641,7 +3023,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2650,7 +3032,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2659,7 +3041,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2668,7 +3050,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2677,7 +3059,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2686,7 +3068,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2697,308 +3079,356 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="73" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F12">
-    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="80" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="81" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="78" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="79" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="77" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="76" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="74" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="69" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="70" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="67" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="55" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="53" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="33" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E19:E1043">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E22:E1043">
       <formula1>$I$4:$I$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F19:F1043">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F22:F1043">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21">
       <formula1>"Refused, Accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21">
       <formula1>"Open, Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Software specification/SRS/SRS_Review.xlsx
+++ b/Software specification/SRS/SRS_Review.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mina\embeded_systems\ES_ITI_intake_40\Software_engineering\Calculator_repo\Software-Engineering\SWE_Calculator\Software specification\SRS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction " sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -223,12 +228,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -536,16 +541,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,16 +565,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +581,7 @@
     <cellStyle name="Normal 3 2" xfId="1"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="86">
     <dxf>
       <font>
         <condense val="0"/>
@@ -694,198 +699,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2137,233 +1950,209 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J24" activeCellId="1" sqref="A8:H8 J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="31" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="31" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="31" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="31" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="28" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>0.1</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -2373,6 +2162,30 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2380,14 +2193,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2399,7 +2212,7 @@
     <col min="10" max="10" width="174.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.15" customHeight="1">
+    <row r="1" spans="1:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +2235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>44014</v>
       </c>
@@ -2445,7 +2258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>44014</v>
       </c>
@@ -2468,7 +2281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>44014</v>
       </c>
@@ -2494,7 +2307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>44014</v>
       </c>
@@ -2517,7 +2330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>44014</v>
       </c>
@@ -2540,7 +2353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>44014</v>
       </c>
@@ -2569,7 +2382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>44014</v>
       </c>
@@ -2598,7 +2411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>44014</v>
       </c>
@@ -2621,7 +2434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>44014</v>
       </c>
@@ -2644,7 +2457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>44014</v>
       </c>
@@ -2667,7 +2480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="75">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>44014</v>
       </c>
@@ -2690,7 +2503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>44014</v>
       </c>
@@ -2713,7 +2526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>44014</v>
       </c>
@@ -2734,7 +2547,7 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>44014</v>
       </c>
@@ -2757,7 +2570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>44014</v>
       </c>
@@ -2780,7 +2593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -2801,7 +2614,7 @@
       </c>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" ht="25.5">
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
@@ -2822,7 +2635,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="25.5">
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>52</v>
       </c>
@@ -2835,13 +2648,15 @@
       <c r="D19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="25.5">
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>52</v>
       </c>
@@ -2854,13 +2669,15 @@
       <c r="D20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F20" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>52</v>
       </c>
@@ -2873,13 +2690,15 @@
       <c r="D21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F21" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2888,7 +2707,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2897,7 +2716,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2906,7 +2725,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2915,7 +2734,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2924,7 +2743,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2933,7 +2752,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2942,7 +2761,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2951,7 +2770,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2960,7 +2779,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2969,7 +2788,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2978,7 +2797,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2987,7 +2806,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2996,7 +2815,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3005,7 +2824,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3014,7 +2833,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3023,7 +2842,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3032,7 +2851,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3041,7 +2860,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3050,7 +2869,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3059,7 +2878,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3068,7 +2887,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3079,340 +2898,340 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="101" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F12">
-    <cfRule type="cellIs" dxfId="100" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="97" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="94" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="92" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="90" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="89" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="85" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="83" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="67" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="78" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="76" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="75" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="71" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="69" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="68" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="58" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="49" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="45" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Software specification/SRS/SRS_Review.xlsx
+++ b/Software specification/SRS/SRS_Review.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mina\embeded_systems\ES_ITI_intake_40\Software_engineering\Calculator_repo\Software-Engineering\SWE_Calculator\Software specification\SRS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2835" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -103,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Initial Version </t>
-  </si>
-  <si>
-    <t>Open</t>
   </si>
   <si>
     <t>Refused</t>
@@ -228,12 +220,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -541,19 +533,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -565,13 +554,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1950,209 +1942,233 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J24" activeCellId="1" sqref="A8:H8 J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="2">
         <v>0.1</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="26" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="2"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="2"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="2"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="2"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="3"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -2162,30 +2178,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2193,14 +2185,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2212,7 +2204,7 @@
     <col min="10" max="10" width="174.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="34.15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2235,470 +2227,470 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="19">
         <v>44014</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="19">
         <v>44014</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="19">
         <v>44014</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="19">
         <v>44014</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="19">
         <v>44014</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="19">
         <v>44014</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="19">
         <v>44014</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="19">
         <v>44014</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="19">
         <v>44014</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="G10" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60">
       <c r="A11" s="19">
         <v>44014</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="G11" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75">
       <c r="A12" s="19">
         <v>44014</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="G12" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="19">
         <v>44014</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="G13" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="19">
         <v>44014</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>25</v>
-      </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="19">
         <v>44014</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="19">
         <v>44014</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5">
+      <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="25.5">
+      <c r="A19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="25.5">
+      <c r="A20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>25</v>
-      </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2707,7 +2699,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2716,7 +2708,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2725,7 +2717,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2734,7 +2726,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2743,7 +2735,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2752,7 +2744,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2761,7 +2753,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2770,7 +2762,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2779,7 +2771,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2788,7 +2780,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2797,7 +2789,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2806,7 +2798,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2815,7 +2807,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2824,7 +2816,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2833,7 +2825,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2842,7 +2834,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2851,7 +2843,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2860,7 +2852,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2869,7 +2861,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2878,7 +2870,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2887,7 +2879,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
